--- a/sheet_metal/bend_parameters.xlsx
+++ b/sheet_metal/bend_parameters.xlsx
@@ -11,15 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>材質 (Material)</t>
-  </si>
-  <si>
-    <t>厚度 (Thickness)</t>
-  </si>
-  <si>
-    <t>折彎係數 (K-Factor)</t>
+    <t>材質 / 厚度</t>
   </si>
   <si>
     <t>黑鐵</t>
@@ -27,12 +21,15 @@
   <si>
     <t>不鏽鋼</t>
   </si>
+  <si>
+    <t>鋁板</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -40,9 +37,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,11 +60,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -290,55 +294,80 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.42</v>
       </c>
       <c r="C2" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>0.35</v>
       </c>
       <c r="C3" s="1">
-        <v>0.44</v>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.38</v>
+        <v>0.41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/sheet_metal/bend_parameters.xlsx
+++ b/sheet_metal/bend_parameters.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Excel 連動板金計算器" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Hardware" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>材質 / 厚度</t>
   </si>
@@ -23,6 +24,42 @@
   </si>
   <si>
     <t>鋁板</t>
+  </si>
+  <si>
+    <t>零件種類 / 規格</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2.5</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>1/8"</t>
+  </si>
+  <si>
+    <t>5/32"</t>
+  </si>
+  <si>
+    <t>壓鉚螺帽</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>壓鉚螺柱</t>
+  </si>
+  <si>
+    <t>拉釘 (鉚釘)</t>
   </si>
 </sst>
 </file>
@@ -79,6 +116,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -373,4 +414,123 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>